--- a/test-case/testcase_auto_generator.xlsx
+++ b/test-case/testcase_auto_generator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="apiTestSuite" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>测试编号</t>
   </si>
@@ -57,22 +57,31 @@
     <t>1</t>
   </si>
   <si>
+    <t>tc01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[tc01, tc$]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>tc02</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>[tc02, a, b]</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>tc01</t>
-  </si>
-  <si>
-    <t>[tc01, tc$]</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TestJDBC</t>
+  </si>
+  <si>
+    <t>[jdbc]</t>
   </si>
   <si>
     <t>是</t>
@@ -82,11 +91,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tc01,tc02</t>
+    <t>tc01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>22</t>
+    <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -106,10 +115,13 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -447,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -495,16 +507,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -530,6 +542,32 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
